--- a/docs/Files/ODYM_Config_Tutorial5.xlsx
+++ b/docs/Files/ODYM_Config_Tutorial5.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spauliuk\FILES\ARBEIT\PROJECTS\ODYM-RECC\ODYM_Model\docs\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spauliuk.AD\FILES\ARBEIT\PROJECTS\ODYM-RECC\ODYM_Model\docs\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21156" windowHeight="10320" tabRatio="844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21158" windowHeight="10320" tabRatio="844" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
     <sheet name="Setting_Tutorial5" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -999,14 +999,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" s="37" t="s">
         <v>42</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="12" t="s">
         <v>44</v>
@@ -1025,14 +1025,14 @@
       </c>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
         <v>2</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="13" t="s">
         <v>63</v>
@@ -1057,133 +1057,133 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8"/>
       <c r="B7" s="13"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21"/>
       <c r="D11" s="17"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
       <c r="D12" s="17"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="15"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="15"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -1198,23 +1198,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C3" s="31" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1273,13 +1273,13 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="D7" s="11"/>
       <c r="I7" s="20"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>68</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -1343,12 +1343,12 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I13" s="20"/>
       <c r="J13" s="25"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="26" t="s">
         <v>60</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C15" s="32" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C16" s="33" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C17" s="33" t="s">
         <v>96</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C18" s="33" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C19" s="33" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C20" s="33" t="s">
         <v>105</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C21" s="44" t="s">
         <v>71</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C22" s="44" t="s">
         <v>72</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C23" s="33" t="s">
         <v>77</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C24" s="33" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C25" s="33" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="26" t="s">
         <v>53</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C28" s="34" t="s">
         <v>54</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C29" s="39">
         <v>0</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C30" s="39">
         <v>1</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C31" s="35">
         <v>2</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C32" s="35">
         <v>3</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C33" s="39">
         <v>4</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="26" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" s="34" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" s="35" t="s">
         <v>101</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" s="35" t="s">
         <v>118</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C39" s="35" t="s">
         <v>114</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C40" s="35" t="s">
         <v>115</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C41" s="35" t="s">
         <v>128</v>
       </c>
@@ -1862,10 +1862,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C42" s="35"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="26" t="s">
         <v>46</v>
       </c>
@@ -1876,12 +1876,12 @@
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C45" s="35" t="s">
         <v>48</v>
       </c>
@@ -1892,22 +1892,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D46" s="41"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D47" s="41"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D48" s="41"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D49" s="41"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D50" s="41"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B52" s="26" t="s">
         <v>56</v>
       </c>
@@ -1918,27 +1918,27 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D54" s="41"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D55" s="41"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D56" s="41"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D57" s="41"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D58" s="41"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D59" s="41"/>
     </row>
   </sheetData>
